--- a/data/news/2022-03-21_news.xlsx
+++ b/data/news/2022-03-21_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\news_analysis\data\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD230E-F95F-4945-BDCA-89CBD98E13E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4B255-4F42-4BD9-9BE4-156E1FC7BF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62205" yWindow="2880" windowWidth="18720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59865" yWindow="2400" windowWidth="18720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,6 @@
   </si>
   <si>
     <t>publish_date</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>2022-03-21</t>
@@ -4223,8 +4208,23 @@
     <t>https://www.ft.com/content/11645070-8a85-41ef-afbe-37f21f79ad0b</t>
   </si>
   <si>
-    <t>keywords</t>
+    <t>news_source</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_topic</t>
+  </si>
+  <si>
+    <t>news_title</t>
+  </si>
+  <si>
+    <t>news_keyword</t>
+  </si>
+  <si>
+    <t>news_link</t>
+  </si>
+  <si>
+    <t>news_text</t>
   </si>
 </sst>
 </file>
@@ -4599,10 +4599,14 @@
   <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
@@ -4612,22 +4616,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>796</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>797</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>798</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -4635,28 +4639,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -4664,28 +4668,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -4693,28 +4697,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -4722,28 +4726,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -4751,28 +4755,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -4780,28 +4784,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -4809,28 +4813,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -4838,28 +4842,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -4867,28 +4871,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -4896,28 +4900,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -4925,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4954,28 +4958,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -4983,28 +4987,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -5012,28 +5016,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -5041,28 +5045,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -5070,28 +5074,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -5099,28 +5103,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -5128,28 +5132,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -5157,28 +5161,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -5186,28 +5190,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -5215,28 +5219,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -5244,28 +5248,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -5273,28 +5277,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -5302,28 +5306,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -5331,28 +5335,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -5360,28 +5364,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -5389,28 +5393,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -5418,28 +5422,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -5447,28 +5451,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -5476,28 +5480,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -5505,28 +5509,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -5534,28 +5538,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -5563,28 +5567,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
         <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -5592,28 +5596,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
         <v>156</v>
       </c>
-      <c r="F35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" t="s">
-        <v>161</v>
-      </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
@@ -5621,28 +5625,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -5650,28 +5654,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="H37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" t="s">
         <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -5679,28 +5683,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -5708,28 +5712,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
@@ -5737,28 +5741,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -5766,28 +5770,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" t="s">
         <v>166</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" t="s">
-        <v>171</v>
-      </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -5795,28 +5799,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -5824,28 +5828,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -5853,28 +5857,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -5882,28 +5886,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H45" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -5911,28 +5915,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
@@ -5940,28 +5944,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -5969,28 +5973,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H48" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -5998,28 +6002,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -6027,28 +6031,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I50" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -6056,28 +6060,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F51" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H51" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
@@ -6085,28 +6089,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I52" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
@@ -6114,28 +6118,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
@@ -6143,28 +6147,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
@@ -6172,28 +6176,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H55" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I55" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -6201,28 +6205,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H56" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -6230,28 +6234,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
@@ -6259,28 +6263,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
@@ -6288,28 +6292,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G59" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I59" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -6317,28 +6321,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G60" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I60" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -6346,28 +6350,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H61" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -6375,28 +6379,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I62" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -6404,28 +6408,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
@@ -6433,28 +6437,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H64" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -6462,28 +6466,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -6491,28 +6495,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
@@ -6520,28 +6524,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I67" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -6549,28 +6553,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -6578,28 +6582,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G69" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -6607,28 +6611,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F70" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G70" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I70" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
@@ -6636,28 +6640,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G71" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H71" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I71" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -6665,28 +6669,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" t="s">
+        <v>272</v>
+      </c>
+      <c r="H72" t="s">
+        <v>273</v>
+      </c>
+      <c r="I72" t="s">
         <v>274</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>275</v>
-      </c>
-      <c r="F72" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" t="s">
-        <v>277</v>
-      </c>
-      <c r="H72" t="s">
-        <v>278</v>
-      </c>
-      <c r="I72" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -6694,28 +6698,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
+        <v>270</v>
+      </c>
+      <c r="F73" t="s">
         <v>275</v>
       </c>
-      <c r="F73" t="s">
-        <v>280</v>
-      </c>
       <c r="G73" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -6723,28 +6727,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G74" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H74" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I74" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -6752,28 +6756,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G75" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H75" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I75" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -6781,28 +6785,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G76" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H76" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I76" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
@@ -6810,28 +6814,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I77" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -6839,28 +6843,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I78" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -6868,28 +6872,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -6897,28 +6901,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G80" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H80" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I80" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -6926,28 +6930,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
@@ -6955,28 +6959,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>292</v>
+      </c>
+      <c r="F82" t="s">
+        <v>295</v>
+      </c>
+      <c r="G82" t="s">
+        <v>296</v>
+      </c>
+      <c r="H82" t="s">
+        <v>297</v>
+      </c>
+      <c r="I82" t="s">
         <v>298</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>297</v>
-      </c>
-      <c r="F82" t="s">
-        <v>300</v>
-      </c>
-      <c r="G82" t="s">
-        <v>301</v>
-      </c>
-      <c r="H82" t="s">
-        <v>302</v>
-      </c>
-      <c r="I82" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
@@ -6984,28 +6988,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F83" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I83" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
@@ -7013,28 +7017,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" t="s">
+        <v>273</v>
+      </c>
+      <c r="I84" t="s">
         <v>274</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>297</v>
-      </c>
-      <c r="F84" t="s">
-        <v>276</v>
-      </c>
-      <c r="G84" t="s">
-        <v>277</v>
-      </c>
-      <c r="H84" t="s">
-        <v>278</v>
-      </c>
-      <c r="I84" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -7042,28 +7046,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -7071,28 +7075,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
+        <v>287</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
         <v>292</v>
       </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>297</v>
-      </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G86" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H86" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I86" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -7100,28 +7104,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G87" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I87" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -7129,28 +7133,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
+        <v>309</v>
+      </c>
+      <c r="D88" t="s">
+        <v>310</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>311</v>
+      </c>
+      <c r="G88" t="s">
+        <v>312</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88" t="s">
         <v>314</v>
-      </c>
-      <c r="D88" t="s">
-        <v>315</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>316</v>
-      </c>
-      <c r="G88" t="s">
-        <v>317</v>
-      </c>
-      <c r="H88" t="s">
-        <v>318</v>
-      </c>
-      <c r="I88" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
@@ -7158,28 +7162,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G89" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H89" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I89" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
@@ -7187,28 +7191,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G90" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H90" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -7216,28 +7220,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" t="s">
+        <v>310</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>311</v>
+      </c>
+      <c r="G91" t="s">
+        <v>312</v>
+      </c>
+      <c r="H91" t="s">
+        <v>313</v>
+      </c>
+      <c r="I91" t="s">
         <v>314</v>
-      </c>
-      <c r="D91" t="s">
-        <v>315</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>316</v>
-      </c>
-      <c r="G91" t="s">
-        <v>317</v>
-      </c>
-      <c r="H91" t="s">
-        <v>318</v>
-      </c>
-      <c r="I91" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -7245,28 +7249,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D92" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G92" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H92" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I92" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -7274,28 +7278,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G93" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H93" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I93" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -7303,28 +7307,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I94" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
@@ -7332,28 +7336,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G95" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H95" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I95" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -7361,28 +7365,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G96" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H96" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I96" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -7390,28 +7394,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G97" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H97" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I97" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -7419,28 +7423,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D98" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G98" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H98" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I98" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -7448,28 +7452,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G99" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H99" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I99" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -7477,28 +7481,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G100" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H100" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I100" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -7506,28 +7510,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G101" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I101" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -7535,28 +7539,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G102" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H102" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I102" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -7564,28 +7568,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D103" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G103" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H103" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I103" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -7593,28 +7597,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D104" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G104" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H104" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I104" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -7622,28 +7626,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G105" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H105" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I105" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -7651,28 +7655,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H106" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I106" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -7680,28 +7684,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G107" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H107" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I107" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -7709,28 +7713,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D108" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G108" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H108" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I108" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -7738,28 +7742,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D109" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G109" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H109" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I109" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -7767,28 +7771,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D110" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G110" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H110" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I110" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -7796,28 +7800,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D111" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G111" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H111" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I111" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -7825,28 +7829,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F112" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G112" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H112" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="I112" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
@@ -7854,28 +7858,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F113" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G113" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H113" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="I113" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -7883,28 +7887,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E114" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F114" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G114" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H114" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="I114" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -7912,28 +7916,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D115" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E115" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F115" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G115" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H115" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I115" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -7941,28 +7945,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G116" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H116" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I116" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -7970,28 +7974,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D117" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F117" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G117" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H117" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I117" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
@@ -7999,28 +8003,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D118" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E118" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F118" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G118" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H118" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I118" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
@@ -8028,28 +8032,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E119" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F119" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G119" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H119" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="I119" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -8057,28 +8061,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F120" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G120" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H120" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I120" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -8086,28 +8090,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E121" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F121" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G121" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H121" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I121" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -8115,28 +8119,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D122" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F122" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G122" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H122" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I122" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -8144,28 +8148,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E123" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F123" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G123" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H123" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I123" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -8173,28 +8177,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D124" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E124" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F124" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G124" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H124" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I124" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">
@@ -8202,28 +8206,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E125" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F125" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G125" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H125" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I125" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.45">
@@ -8231,28 +8235,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E126" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F126" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G126" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H126" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I126" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.45">
@@ -8260,28 +8264,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E127" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F127" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G127" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H127" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I127" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.45">
@@ -8289,28 +8293,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D128" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E128" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G128" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H128" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I128" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.45">
@@ -8318,28 +8322,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
+        <v>480</v>
+      </c>
+      <c r="D129" t="s">
+        <v>310</v>
+      </c>
+      <c r="E129" t="s">
+        <v>292</v>
+      </c>
+      <c r="F129" t="s">
         <v>485</v>
       </c>
-      <c r="D129" t="s">
-        <v>315</v>
-      </c>
-      <c r="E129" t="s">
-        <v>297</v>
-      </c>
-      <c r="F129" t="s">
-        <v>490</v>
-      </c>
       <c r="G129" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H129" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I129" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.45">
@@ -8347,28 +8351,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D130" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E130" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F130" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G130" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H130" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I130" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.45">
@@ -8376,28 +8380,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D131" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E131" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F131" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G131" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H131" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I131" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.45">
@@ -8405,28 +8409,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" t="s">
+        <v>500</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>501</v>
+      </c>
+      <c r="G132" t="s">
+        <v>502</v>
+      </c>
+      <c r="H132" t="s">
+        <v>503</v>
+      </c>
+      <c r="I132" t="s">
         <v>504</v>
-      </c>
-      <c r="D132" t="s">
-        <v>505</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>506</v>
-      </c>
-      <c r="G132" t="s">
-        <v>507</v>
-      </c>
-      <c r="H132" t="s">
-        <v>508</v>
-      </c>
-      <c r="I132" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
@@ -8434,28 +8438,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D133" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F133" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G133" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H133" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I133" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.45">
@@ -8463,28 +8467,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D134" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G134" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H134" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="I134" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
@@ -8492,28 +8496,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G135" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H135" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="I135" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
@@ -8521,28 +8525,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D136" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G136" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H136" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I136" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
@@ -8550,28 +8554,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
+        <v>523</v>
+      </c>
+      <c r="D137" t="s">
+        <v>524</v>
+      </c>
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" t="s">
+        <v>525</v>
+      </c>
+      <c r="G137" t="s">
+        <v>526</v>
+      </c>
+      <c r="H137" t="s">
+        <v>527</v>
+      </c>
+      <c r="I137" t="s">
         <v>528</v>
-      </c>
-      <c r="D137" t="s">
-        <v>529</v>
-      </c>
-      <c r="E137" t="s">
-        <v>109</v>
-      </c>
-      <c r="F137" t="s">
-        <v>530</v>
-      </c>
-      <c r="G137" t="s">
-        <v>531</v>
-      </c>
-      <c r="H137" t="s">
-        <v>532</v>
-      </c>
-      <c r="I137" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
@@ -8579,28 +8583,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D138" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E138" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F138" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G138" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H138" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I138" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
@@ -8608,28 +8612,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D139" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E139" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F139" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G139" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H139" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I139" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
@@ -8637,28 +8641,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D140" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E140" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F140" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G140" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H140" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I140" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
@@ -8666,28 +8670,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D141" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E141" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F141" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G141" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H141" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I141" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
@@ -8695,28 +8699,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D142" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E142" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F142" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G142" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H142" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I142" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
@@ -8724,28 +8728,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D143" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E143" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F143" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G143" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H143" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I143" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
@@ -8753,28 +8757,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D144" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E144" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F144" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G144" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H144" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I144" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -8782,28 +8786,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D145" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E145" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G145" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I145" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -8811,28 +8815,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D146" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E146" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F146" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G146" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H146" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I146" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
@@ -8840,28 +8844,28 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D147" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E147" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F147" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G147" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H147" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I147" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
@@ -8869,28 +8873,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D148" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E148" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G148" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H148" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I148" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
@@ -8898,28 +8902,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D149" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E149" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F149" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G149" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H149" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I149" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
@@ -8927,28 +8931,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D150" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E150" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F150" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G150" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H150" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I150" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
@@ -8956,28 +8960,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D151" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E151" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F151" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G151" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H151" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I151" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
@@ -8985,28 +8989,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D152" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E152" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F152" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G152" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H152" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I152" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
@@ -9014,28 +9018,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D153" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F153" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G153" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H153" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I153" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
@@ -9043,28 +9047,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D154" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E154" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F154" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G154" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H154" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I154" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
@@ -9072,28 +9076,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D155" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E155" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F155" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G155" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H155" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I155" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
@@ -9101,28 +9105,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D156" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E156" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F156" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G156" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H156" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="I156" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
@@ -9130,28 +9134,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D157" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E157" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F157" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G157" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H157" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="I157" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -9159,28 +9163,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D158" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E158" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F158" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G158" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H158" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I158" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
@@ -9188,28 +9192,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D159" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E159" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F159" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G159" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H159" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I159" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
@@ -9217,28 +9221,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D160" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E160" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F160" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G160" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H160" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I160" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
@@ -9246,28 +9250,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D161" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E161" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F161" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G161" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H161" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I161" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
@@ -9275,28 +9279,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D162" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E162" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F162" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G162" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H162" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I162" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
@@ -9304,28 +9308,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D163" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E163" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F163" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G163" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H163" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I163" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
@@ -9333,28 +9337,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D164" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G164" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H164" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I164" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
@@ -9362,28 +9366,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D165" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F165" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G165" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H165" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I165" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
@@ -9391,28 +9395,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D166" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F166" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="G166" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H166" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I166" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
@@ -9420,28 +9424,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
+        <v>523</v>
+      </c>
+      <c r="D167" t="s">
+        <v>524</v>
+      </c>
+      <c r="E167" t="s">
+        <v>292</v>
+      </c>
+      <c r="F167" t="s">
+        <v>525</v>
+      </c>
+      <c r="G167" t="s">
+        <v>526</v>
+      </c>
+      <c r="H167" t="s">
+        <v>527</v>
+      </c>
+      <c r="I167" t="s">
         <v>528</v>
-      </c>
-      <c r="D167" t="s">
-        <v>529</v>
-      </c>
-      <c r="E167" t="s">
-        <v>297</v>
-      </c>
-      <c r="F167" t="s">
-        <v>530</v>
-      </c>
-      <c r="G167" t="s">
-        <v>531</v>
-      </c>
-      <c r="H167" t="s">
-        <v>532</v>
-      </c>
-      <c r="I167" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
@@ -9449,28 +9453,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D168" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E168" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F168" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G168" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H168" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I168" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
@@ -9478,28 +9482,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D169" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E169" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F169" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G169" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H169" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I169" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
@@ -9507,28 +9511,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D170" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E170" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F170" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G170" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H170" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I170" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
@@ -9536,28 +9540,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D171" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E171" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F171" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G171" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H171" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="I171" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.45">
@@ -9565,28 +9569,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D172" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E172" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F172" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G172" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H172" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="I172" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.45">
@@ -9594,28 +9598,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D173" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E173" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F173" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G173" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H173" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I173" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.45">
@@ -9623,28 +9627,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D174" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F174" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G174" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H174" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I174" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
@@ -9652,28 +9656,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D175" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E175" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F175" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G175" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H175" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I175" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
@@ -9681,28 +9685,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D176" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E176" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F176" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G176" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H176" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="I176" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
@@ -9710,28 +9714,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D177" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E177" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F177" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G177" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="H177" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I177" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.45">
@@ -9739,28 +9743,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
+        <v>678</v>
+      </c>
+      <c r="D178" t="s">
+        <v>679</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>680</v>
+      </c>
+      <c r="G178" t="s">
+        <v>681</v>
+      </c>
+      <c r="H178" t="s">
+        <v>682</v>
+      </c>
+      <c r="I178" t="s">
         <v>683</v>
-      </c>
-      <c r="D178" t="s">
-        <v>684</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>685</v>
-      </c>
-      <c r="G178" t="s">
-        <v>686</v>
-      </c>
-      <c r="H178" t="s">
-        <v>687</v>
-      </c>
-      <c r="I178" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.45">
@@ -9768,28 +9772,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D179" t="s">
+        <v>679</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179" t="s">
         <v>684</v>
       </c>
-      <c r="E179" t="s">
-        <v>10</v>
-      </c>
-      <c r="F179" t="s">
-        <v>689</v>
-      </c>
       <c r="G179" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H179" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="I179" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.45">
@@ -9797,28 +9801,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D180" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G180" t="s">
+        <v>685</v>
+      </c>
+      <c r="H180" t="s">
         <v>690</v>
       </c>
-      <c r="H180" t="s">
-        <v>695</v>
-      </c>
       <c r="I180" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.45">
@@ -9826,28 +9830,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D181" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G181" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H181" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="I181" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.45">
@@ -9855,28 +9859,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D182" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G182" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H182" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="I182" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
@@ -9884,28 +9888,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D183" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F183" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G183" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H183" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="I183" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.45">
@@ -9913,28 +9917,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D184" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G184" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H184" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="I184" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.45">
@@ -9942,28 +9946,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D185" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G185" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H185" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="I185" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.45">
@@ -9971,28 +9975,28 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D186" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F186" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G186" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H186" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="I186" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.45">
@@ -10000,28 +10004,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D187" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F187" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G187" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H187" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I187" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
@@ -10029,28 +10033,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F188" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G188" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H188" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I188" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
@@ -10058,28 +10062,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D189" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F189" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G189" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H189" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="I189" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.45">
@@ -10087,28 +10091,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D190" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G190" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H190" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="I190" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.45">
@@ -10116,28 +10120,28 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D191" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G191" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H191" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I191" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.45">
@@ -10145,28 +10149,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D192" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G192" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H192" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I192" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.45">
@@ -10174,28 +10178,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D193" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G193" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H193" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I193" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.45">
@@ -10203,28 +10207,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D194" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F194" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G194" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H194" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I194" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.45">
@@ -10232,28 +10236,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D195" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F195" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G195" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H195" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="I195" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.45">
@@ -10261,28 +10265,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D196" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G196" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H196" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="I196" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.45">
@@ -10290,28 +10294,28 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D197" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F197" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G197" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H197" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I197" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.45">
@@ -10319,28 +10323,28 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D198" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F198" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G198" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H198" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I198" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.45">
@@ -10348,28 +10352,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D199" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G199" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H199" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I199" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.45">
@@ -10377,28 +10381,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D200" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F200" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G200" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H200" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="I200" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.45">
@@ -10406,28 +10410,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D201" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F201" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G201" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H201" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I201" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.45">
@@ -10435,28 +10439,28 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D202" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G202" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H202" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="I202" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.45">
@@ -10464,28 +10468,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D203" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E203" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F203" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G203" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H203" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="I203" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.45">
@@ -10493,28 +10497,28 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D204" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E204" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F204" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G204" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H204" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="I204" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.45">
@@ -10522,28 +10526,28 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D205" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E205" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F205" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G205" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H205" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="I205" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.45">
@@ -10551,28 +10555,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D206" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E206" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F206" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G206" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H206" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I206" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.45">
@@ -10580,28 +10584,28 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D207" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E207" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F207" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G207" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H207" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="I207" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
@@ -10609,28 +10613,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D208" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E208" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F208" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G208" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H208" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="I208" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.45">
@@ -10638,28 +10642,28 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D209" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E209" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F209" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G209" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H209" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="I209" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.45">
@@ -10667,28 +10671,28 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D210" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E210" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F210" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G210" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="H210" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="I210" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.45">
@@ -10696,28 +10700,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D211" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E211" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F211" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G211" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H211" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I211" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.45">
@@ -10725,28 +10729,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
+        <v>777</v>
+      </c>
+      <c r="D212" t="s">
+        <v>679</v>
+      </c>
+      <c r="E212" t="s">
+        <v>104</v>
+      </c>
+      <c r="F212" t="s">
         <v>782</v>
       </c>
-      <c r="D212" t="s">
-        <v>684</v>
-      </c>
-      <c r="E212" t="s">
-        <v>109</v>
-      </c>
-      <c r="F212" t="s">
-        <v>787</v>
-      </c>
       <c r="G212" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H212" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I212" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.45">
@@ -10754,28 +10758,28 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D213" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E213" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F213" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G213" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H213" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="I213" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.45">
@@ -10783,28 +10787,28 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D214" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E214" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F214" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G214" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H214" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="I214" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.45">
@@ -10812,28 +10816,28 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D215" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E215" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F215" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G215" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H215" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="I215" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/data/news/2022-03-21_news.xlsx
+++ b/data/news/2022-03-21_news.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\news_analysis\data\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4B255-4F42-4BD9-9BE4-156E1FC7BF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC72E1FB-E5BD-41F5-8611-B3D5F6A8A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59865" yWindow="2400" windowWidth="18720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62205" yWindow="2880" windowWidth="18720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4212,9 +4212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>new_topic</t>
-  </si>
-  <si>
     <t>news_title</t>
   </si>
   <si>
@@ -4225,6 +4222,10 @@
   </si>
   <si>
     <t>news_text</t>
+  </si>
+  <si>
+    <t>news_topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4599,7 +4600,7 @@
   <dimension ref="A1:I215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4619,19 +4620,19 @@
         <v>796</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
